--- a/similarities/split_global/harmonic_similarity_timestamps_271.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_271.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,710 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>schubert-winterreise_13</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min', 'A#:7/G#', 'D#:min/F#']]</t>
+          <t>['B:maj', 'F#:7', 'B:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:13.500000', '0:00:25.260000')]</t>
+          <t>('0:01:12.640000', '0:01:23.380000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:11.440000', '0:00:17.640000')]</t>
+          <t>('0:00:00.320000', '0:00:09.540000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=13.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=72.64</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=11.44']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=0.32</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>schubert-winterreise_118</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>schubert-winterreise_49</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:04:03.440000', '0:04:09.260000')]</t>
+          <t>('0:00:54.380000', '0:00:58.560000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:07.590000', '0:00:14.680000')]</t>
+          <t>('0:00:18.760000', '0:00:24.660000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=243.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=54.38</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=18.76</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>isophonics_124</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A']]</t>
+          <t>['F', 'Bb', 'F', 'C']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['A', 'D', 'A', 'E']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:00.939000', '0:00:03.682000')]</t>
+          <t>('0:00:15.124263', '0:00:21.811609')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:21.580000', '0:00:29.340000')]</t>
+          <t>('0:00:40.490000', '0:00:50.260000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=0.939']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>isophonics_194</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>schubert-winterreise_183</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['G', 'D', 'G']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:03.220000', '0:01:10.460000')]</t>
+          <t>('0:02:22.379117', '0:02:27.510727')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:42.150000', '0:01:07.840000')]</t>
+          <t>('0:02:11.140000', '0:02:13.900000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=63.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-194#t=142.379117</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=42.15']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=131.14</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>schubert-winterreise_54</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:06.760000', '0:00:12.960000')]</t>
+          <t>('0:01:14.100000', '0:01:20.040000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:16.720000', '0:00:26.460000')]</t>
+          <t>('0:00:18.420000', '0:00:24.340000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=6.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=74.1</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=16.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=18.42</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
+          <t>schubert-winterreise_144</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>isophonics_252</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E'], ['B', 'E', 'A']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Ab', 'Bb', 'Eb'], ['Bb', 'Eb', 'Ab']]</t>
+          <t>['C:min', 'G:maj', 'C:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:13.393711', '0:00:17.886772'), ('0:00:00.444363', '0:00:11.872804')]</t>
+          <t>('0:00:00.860000', '0:00:05.140000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:07.043000', '0:00:10.286000'), ('0:00:10.286000', '0:00:15.006000')]</t>
+          <t>('0:00:07.523000', '0:00:10.397000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=13.393711', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=0.444363']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=0.86</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=7.043', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=10.286']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=7.523</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
+          <t>['G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj', 'C:min']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:13.740000', '0:00:22.560000')]</t>
+          <t>('0:00:18.800000', '0:00:21.340000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:07.960000', '0:00:13.120000')]</t>
+          <t>('0:00:19.130000', '0:00:20.830000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=13.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=18.8</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=7.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=19.13</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>jaah_74</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>isophonics_92</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['F:7', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['B:7', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:32.080000', '0:00:41.940000')]</t>
+          <t>('0:00:04.830000', '0:00:07.280000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:23.260000', '0:00:33.620000')]</t>
+          <t>('0:00:22.622607', '0:00:29.751133')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=32.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=4.83</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-162#t=23.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-92#t=22.622607</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>jaah_67</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj']]</t>
+          <t>['G#/C', 'D#:7/A#', 'G#/C']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['B', 'F#', 'B', 'F#', 'B']]</t>
+          <t>['Db', 'Ab:7', 'Db']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:10.200000', '0:00:13.760000')]</t>
+          <t>('0:00:56.560000', '0:00:58.480000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:02:31.259637', '0:02:37.900544')]</t>
+          <t>('0:00:59.730000', '0:01:03.930000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=10.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=56.56</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=151.259637']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=59.73</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>schubert-winterreise_104</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['E', 'B', 'E', 'B', 'E']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:18.720000')]</t>
+          <t>('0:01:29.257527', '0:01:50.178707')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:25.220000', '0:00:27.170000')]</t>
+          <t>('0:00:08.720000', '0:00:11.680000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=89.257527</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=8.72</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:03.100000', '0:00:07.720000')]</t>
+          <t>('0:00:34.410000', '0:00:39.540000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:02:11.200000', '0:02:16.340000')]</t>
+          <t>('0:02:04.920000', '0:02:08.840000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=3.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=131.2']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>schubert-winterreise_31</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C', 'D:min7', 'G:7', 'C'], ['D:min7', 'G:7', 'C', 'G:7']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'A:min7/C', 'D:7', 'G:maj'], ['A:min7/C', 'D:7', 'G:maj', 'D:7/C']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:02.270000', '0:01:09.760000'), ('0:00:04.240000', '0:00:15.040000')]</t>
+          <t>('0:00:07.900000', '0:00:16.080000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:06.640000', '0:01:14.100000'), ('0:01:07.560000', '0:01:17.120000')]</t>
+          <t>('0:03:46.620000', '0:03:52.800000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=62.27', 'https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=4.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=7.9</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=66.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=67.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>schubert-winterreise_47</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['C:7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['A#:7/F', 'D#/G', 'A#:7', 'D#']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
+          <t>('0:01:26.940000', '0:01:37.980000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:21.140000', '0:00:27.920000')]</t>
+          <t>('0:00:46.960000', '0:00:50.740000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=36.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=86.94</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=21.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=46.96</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
+          <t>isophonics_5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['A:maj', 'D:maj', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G/5', 'C/9', 'G', 'C/5']]</t>
+          <t>['B', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
+          <t>('0:00:09.967000', '0:00:18.318000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:00.727609', '0:00:10.723990')]</t>
+          <t>('0:00:08.291354', '0:00:14.073123')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=9.967</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=0.727609']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-5#t=8.291354</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>schubert-winterreise_195</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:32.080000', '0:00:41.940000')]</t>
+          <t>('0:00:44.160000', '0:00:48.160000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:00.600000', '0:00:11.320000')]</t>
+          <t>('0:00:13.720000', '0:00:20.760000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=32.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=44.16</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=0.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=13.72</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
